--- a/flows/GSG_fund_flow_data.xlsx
+++ b/flows/GSG_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4438"/>
+  <dimension ref="A1:B4456"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44815,6 +44815,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4439">
+      <c r="A4439" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B4439" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B4440" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B4441" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B4442" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B4443" t="n">
+        <v>-11.57222</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B4444" t="n">
+        <v>-3.18657</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B4445" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B4446" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B4447" t="n">
+        <v>10.69375</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B4448" t="n">
+        <v>24.44808</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B4449" t="n">
+        <v>3.168375</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B4450" t="n">
+        <v>2.12946</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B4451" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B4452" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B4453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B4454" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B4455" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B4456" t="n">
+        <v>2.17307</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
